--- a/APM files/122325576/122325576 IMPORT remove old Packages.xlsx
+++ b/APM files/122325576/122325576 IMPORT remove old Packages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Dev\workspace\APM files\122325576\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37643651-CFDB-4912-B1E0-77A526C0CEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE5ACAE-CA78-428A-9297-39832EFBE7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="5130" windowWidth="22830" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="1935" windowWidth="22830" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="157">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -89,6 +89,12 @@
     <t>391097789</t>
   </si>
   <si>
+    <t>393356471</t>
+  </si>
+  <si>
+    <t>393356472</t>
+  </si>
+  <si>
     <t>88986725</t>
   </si>
   <si>
@@ -107,6 +113,12 @@
     <t>391098440</t>
   </si>
   <si>
+    <t>393356438</t>
+  </si>
+  <si>
+    <t>393356439</t>
+  </si>
+  <si>
     <t>321231942</t>
   </si>
   <si>
@@ -122,6 +134,12 @@
     <t>391098649</t>
   </si>
   <si>
+    <t>393356440</t>
+  </si>
+  <si>
+    <t>393356441</t>
+  </si>
+  <si>
     <t>321231950</t>
   </si>
   <si>
@@ -137,6 +155,12 @@
     <t>391098595</t>
   </si>
   <si>
+    <t>393356442</t>
+  </si>
+  <si>
+    <t>393356443</t>
+  </si>
+  <si>
     <t>321231958</t>
   </si>
   <si>
@@ -152,6 +176,12 @@
     <t>391098551</t>
   </si>
   <si>
+    <t>393356444</t>
+  </si>
+  <si>
+    <t>393356445</t>
+  </si>
+  <si>
     <t>321231999</t>
   </si>
   <si>
@@ -167,6 +197,12 @@
     <t>391098500</t>
   </si>
   <si>
+    <t>393356446</t>
+  </si>
+  <si>
+    <t>393356447</t>
+  </si>
+  <si>
     <t>89807535</t>
   </si>
   <si>
@@ -185,6 +221,12 @@
     <t>391097625</t>
   </si>
   <si>
+    <t>393356473</t>
+  </si>
+  <si>
+    <t>393356474</t>
+  </si>
+  <si>
     <t>89853214</t>
   </si>
   <si>
@@ -203,6 +245,12 @@
     <t>391097779</t>
   </si>
   <si>
+    <t>393356475</t>
+  </si>
+  <si>
+    <t>393356476</t>
+  </si>
+  <si>
     <t>90163497</t>
   </si>
   <si>
@@ -221,6 +269,12 @@
     <t>391097756</t>
   </si>
   <si>
+    <t>393356477</t>
+  </si>
+  <si>
+    <t>393356478</t>
+  </si>
+  <si>
     <t>91060132</t>
   </si>
   <si>
@@ -233,6 +287,12 @@
     <t>389218780</t>
   </si>
   <si>
+    <t>393356479</t>
+  </si>
+  <si>
+    <t>393356480</t>
+  </si>
+  <si>
     <t>91723065</t>
   </si>
   <si>
@@ -248,6 +308,12 @@
     <t>391097684</t>
   </si>
   <si>
+    <t>393356481</t>
+  </si>
+  <si>
+    <t>393356482</t>
+  </si>
+  <si>
     <t>321799591</t>
   </si>
   <si>
@@ -260,6 +326,12 @@
     <t>391097698</t>
   </si>
   <si>
+    <t>393356483</t>
+  </si>
+  <si>
+    <t>393356484</t>
+  </si>
+  <si>
     <t>321799597</t>
   </si>
   <si>
@@ -272,6 +344,12 @@
     <t>391097714</t>
   </si>
   <si>
+    <t>393356485</t>
+  </si>
+  <si>
+    <t>393356486</t>
+  </si>
+  <si>
     <t>91790207</t>
   </si>
   <si>
@@ -287,6 +365,12 @@
     <t>391097847</t>
   </si>
   <si>
+    <t>393356487</t>
+  </si>
+  <si>
+    <t>393356488</t>
+  </si>
+  <si>
     <t>91987821</t>
   </si>
   <si>
@@ -302,6 +386,12 @@
     <t>391097818</t>
   </si>
   <si>
+    <t>393356450</t>
+  </si>
+  <si>
+    <t>393356453</t>
+  </si>
+  <si>
     <t>96659730</t>
   </si>
   <si>
@@ -311,6 +401,9 @@
     <t>391790028</t>
   </si>
   <si>
+    <t>393356454</t>
+  </si>
+  <si>
     <t>96658659</t>
   </si>
   <si>
@@ -320,6 +413,9 @@
     <t>391788753</t>
   </si>
   <si>
+    <t>393356455</t>
+  </si>
+  <si>
     <t>96661212</t>
   </si>
   <si>
@@ -329,6 +425,9 @@
     <t>391790695</t>
   </si>
   <si>
+    <t>393356456</t>
+  </si>
+  <si>
     <t>96662493</t>
   </si>
   <si>
@@ -338,6 +437,9 @@
     <t>391791079</t>
   </si>
   <si>
+    <t>393356457</t>
+  </si>
+  <si>
     <t>96662009</t>
   </si>
   <si>
@@ -347,6 +449,9 @@
     <t>391790881</t>
   </si>
   <si>
+    <t>393356458</t>
+  </si>
+  <si>
     <t>96674360</t>
   </si>
   <si>
@@ -356,6 +461,9 @@
     <t>391796630</t>
   </si>
   <si>
+    <t>393356459</t>
+  </si>
+  <si>
     <t>99464099</t>
   </si>
   <si>
@@ -365,6 +473,18 @@
     <t>392331308</t>
   </si>
   <si>
+    <t>393356460</t>
+  </si>
+  <si>
+    <t>393356461</t>
+  </si>
+  <si>
+    <t>393356462</t>
+  </si>
+  <si>
+    <t>393356463</t>
+  </si>
+  <si>
     <t>99603905</t>
   </si>
   <si>
@@ -372,6 +492,9 @@
   </si>
   <si>
     <t>392418643</t>
+  </si>
+  <si>
+    <t>393356464</t>
   </si>
   <si>
     <t>100720929</t>
@@ -743,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,13 +1016,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -919,13 +1042,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -945,10 +1068,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -971,10 +1094,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -997,13 +1120,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1023,13 +1146,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1049,13 +1172,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1075,13 +1198,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1101,13 +1224,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
         <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -1127,13 +1250,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -1153,13 +1276,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -1179,13 +1302,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -1205,13 +1328,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -1231,13 +1354,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
         <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -1257,13 +1380,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -1283,13 +1406,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -1309,13 +1432,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
@@ -1335,13 +1458,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
         <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -1361,13 +1484,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -1387,13 +1510,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
@@ -1413,13 +1536,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -1439,13 +1562,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
         <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -1465,13 +1588,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
         <v>45</v>
-      </c>
-      <c r="C28" t="s">
-        <v>48</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
@@ -1491,13 +1614,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -1517,13 +1640,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -1543,13 +1666,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -1569,13 +1692,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s">
         <v>50</v>
-      </c>
-      <c r="B32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" t="s">
-        <v>54</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -1595,13 +1718,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
         <v>51</v>
-      </c>
-      <c r="C33" t="s">
-        <v>55</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -1621,13 +1744,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -1647,13 +1770,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -1673,13 +1796,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -1699,13 +1822,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -1725,13 +1848,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
@@ -1751,13 +1874,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
@@ -1777,13 +1900,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
@@ -1803,13 +1926,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
@@ -1829,13 +1952,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
@@ -1855,13 +1978,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
@@ -1881,13 +2004,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" t="s">
         <v>66</v>
-      </c>
-      <c r="B44" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" t="s">
-        <v>73</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
@@ -1907,13 +2030,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D45" t="s">
         <v>13</v>
@@ -1933,13 +2056,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -1959,13 +2082,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D47" t="s">
         <v>13</v>
@@ -1985,13 +2108,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
@@ -2011,13 +2134,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D49" t="s">
         <v>13</v>
@@ -2037,13 +2160,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
@@ -2063,13 +2186,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D51" t="s">
         <v>13</v>
@@ -2089,13 +2212,13 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
@@ -2115,13 +2238,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D53" t="s">
         <v>13</v>
@@ -2141,13 +2264,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
@@ -2167,13 +2290,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D55" t="s">
         <v>13</v>
@@ -2193,13 +2316,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D56" t="s">
         <v>13</v>
@@ -2219,13 +2342,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D57" t="s">
         <v>13</v>
@@ -2245,13 +2368,13 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C58" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D58" t="s">
         <v>13</v>
@@ -2271,13 +2394,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D59" t="s">
         <v>13</v>
@@ -2297,13 +2420,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D60" t="s">
         <v>13</v>
@@ -2323,13 +2446,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
@@ -2349,13 +2472,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D62" t="s">
         <v>13</v>
@@ -2375,27 +2498,1093 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" t="s">
+        <v>95</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" t="s">
+        <v>101</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" t="s">
+        <v>99</v>
+      </c>
+      <c r="C72" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" t="s">
+        <v>103</v>
+      </c>
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" t="s">
+        <v>104</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" t="s">
+        <v>109</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>105</v>
+      </c>
+      <c r="B79" t="s">
+        <v>106</v>
+      </c>
+      <c r="C79" t="s">
+        <v>111</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80" t="s">
         <v>113</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C80" t="s">
         <v>114</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81" t="s">
+        <v>113</v>
+      </c>
+      <c r="C81" t="s">
         <v>115</v>
       </c>
-      <c r="D63" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" t="s">
-        <v>8</v>
-      </c>
-      <c r="G63" t="s">
-        <v>9</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" t="s">
+        <v>116</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>112</v>
+      </c>
+      <c r="B83" t="s">
+        <v>113</v>
+      </c>
+      <c r="C83" t="s">
+        <v>117</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" t="s">
+        <v>113</v>
+      </c>
+      <c r="C84" t="s">
+        <v>118</v>
+      </c>
+      <c r="D84" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>119</v>
+      </c>
+      <c r="B85" t="s">
+        <v>120</v>
+      </c>
+      <c r="C85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" t="s">
+        <v>120</v>
+      </c>
+      <c r="C86" t="s">
+        <v>122</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" t="s">
+        <v>9</v>
+      </c>
+      <c r="H86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>123</v>
+      </c>
+      <c r="B87" t="s">
+        <v>124</v>
+      </c>
+      <c r="C87" t="s">
+        <v>125</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" t="s">
+        <v>126</v>
+      </c>
+      <c r="D88" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" t="s">
+        <v>9</v>
+      </c>
+      <c r="H88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>127</v>
+      </c>
+      <c r="B89" t="s">
+        <v>128</v>
+      </c>
+      <c r="C89" t="s">
+        <v>129</v>
+      </c>
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" t="s">
+        <v>9</v>
+      </c>
+      <c r="H89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>127</v>
+      </c>
+      <c r="B90" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" t="s">
+        <v>130</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" t="s">
+        <v>9</v>
+      </c>
+      <c r="H90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>131</v>
+      </c>
+      <c r="B91" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" t="s">
+        <v>133</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" t="s">
+        <v>9</v>
+      </c>
+      <c r="H91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>131</v>
+      </c>
+      <c r="B92" t="s">
+        <v>132</v>
+      </c>
+      <c r="C92" t="s">
+        <v>134</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>135</v>
+      </c>
+      <c r="B93" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93" t="s">
+        <v>137</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" t="s">
+        <v>9</v>
+      </c>
+      <c r="H93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>135</v>
+      </c>
+      <c r="B94" t="s">
+        <v>136</v>
+      </c>
+      <c r="C94" t="s">
+        <v>138</v>
+      </c>
+      <c r="D94" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>139</v>
+      </c>
+      <c r="B95" t="s">
+        <v>140</v>
+      </c>
+      <c r="C95" t="s">
+        <v>141</v>
+      </c>
+      <c r="D95" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" t="s">
+        <v>9</v>
+      </c>
+      <c r="H95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>139</v>
+      </c>
+      <c r="B96" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" t="s">
+        <v>142</v>
+      </c>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>143</v>
+      </c>
+      <c r="B97" t="s">
+        <v>144</v>
+      </c>
+      <c r="C97" t="s">
+        <v>145</v>
+      </c>
+      <c r="D97" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" t="s">
+        <v>9</v>
+      </c>
+      <c r="H97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>143</v>
+      </c>
+      <c r="B98" t="s">
+        <v>144</v>
+      </c>
+      <c r="C98" t="s">
+        <v>146</v>
+      </c>
+      <c r="D98" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>143</v>
+      </c>
+      <c r="B99" t="s">
+        <v>144</v>
+      </c>
+      <c r="C99" t="s">
+        <v>147</v>
+      </c>
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" t="s">
+        <v>8</v>
+      </c>
+      <c r="G99" t="s">
+        <v>9</v>
+      </c>
+      <c r="H99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>143</v>
+      </c>
+      <c r="B100" t="s">
+        <v>144</v>
+      </c>
+      <c r="C100" t="s">
+        <v>148</v>
+      </c>
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" t="s">
+        <v>9</v>
+      </c>
+      <c r="H100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>143</v>
+      </c>
+      <c r="B101" t="s">
+        <v>144</v>
+      </c>
+      <c r="C101" t="s">
+        <v>149</v>
+      </c>
+      <c r="D101" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>150</v>
+      </c>
+      <c r="B102" t="s">
+        <v>151</v>
+      </c>
+      <c r="C102" t="s">
+        <v>152</v>
+      </c>
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" t="s">
+        <v>9</v>
+      </c>
+      <c r="H102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>150</v>
+      </c>
+      <c r="B103" t="s">
+        <v>151</v>
+      </c>
+      <c r="C103" t="s">
+        <v>153</v>
+      </c>
+      <c r="D103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" t="s">
+        <v>9</v>
+      </c>
+      <c r="H103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>154</v>
+      </c>
+      <c r="B104" t="s">
+        <v>155</v>
+      </c>
+      <c r="C104" t="s">
+        <v>156</v>
+      </c>
+      <c r="D104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104" t="s">
+        <v>9</v>
+      </c>
+      <c r="H104" t="s">
         <v>8</v>
       </c>
     </row>
